--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Introduction</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>Conclusions</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Not Yet Started</t>
   </si>
 </sst>
 </file>
@@ -45,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="mmmm&quot; &quot;d"/>
     <numFmt numFmtId="165" formatCode="mmm d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -57,13 +66,8 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color rgb="FFFF9900"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +80,18 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -83,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -103,7 +119,9 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,9 +802,8 @@
         <v>5</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8">
@@ -794,21 +811,42 @@
         <v>6</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="6"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>